--- a/Mifos Automation Excels/Loan Product/4134-RBI-EI-DB-SAR-NOREC-MOREREPAY-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/4134-RBI-EI-DB-SAR-NOREC-MOREREPAY-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>productname</t>
   </si>
@@ -95,10 +95,13 @@
     <t>Overdue/Due Fee/Int,Principal</t>
   </si>
   <si>
-    <t>4134-RBI-EI-DB-SAR-NOREC-MOREREPAY</t>
-  </si>
-  <si>
     <t>Same as repayment period</t>
+  </si>
+  <si>
+    <t>4134-RBI-EI-DB-SAR-NOREC-MOREREPAY-1st</t>
+  </si>
+  <si>
+    <t>413y</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -495,15 +498,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>4134</v>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
